--- a/web/backend/Python-services/src/data/xlsx/sample/FAMS_12.xlsx
+++ b/web/backend/Python-services/src/data/xlsx/sample/FAMS_12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45618924-A959-416C-9D13-7182C67D6E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB66E717-EF7C-4C65-9C2C-30F851256578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="2595" windowWidth="21600" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="709">
   <si>
     <t>Họ và Tên</t>
   </si>
@@ -1802,886 +1802,13 @@
     <t>tranxuankhanh653@gmail.com</t>
   </si>
   <si>
-    <t>Huỳnh Minh Trang</t>
-  </si>
-  <si>
-    <t>12/06/2007</t>
-  </si>
-  <si>
-    <t>0922655812</t>
-  </si>
-  <si>
-    <t>Bùi Hữu Bình</t>
-  </si>
-  <si>
-    <t>0919982246</t>
-  </si>
-  <si>
-    <t>buihuubinh979@gmail.com</t>
-  </si>
-  <si>
-    <t>Đặng Văn An</t>
-  </si>
-  <si>
-    <t>0930679968</t>
-  </si>
-  <si>
     <t>Đặng Hữu Trang</t>
   </si>
   <si>
-    <t>0931640291</t>
-  </si>
-  <si>
-    <t>đanghuutrang149@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Văn Lan</t>
-  </si>
-  <si>
-    <t>0954250091</t>
-  </si>
-  <si>
-    <t>huynhvanlan476@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Văn Chi</t>
-  </si>
-  <si>
-    <t>10/01/2007</t>
-  </si>
-  <si>
-    <t>0969366466</t>
-  </si>
-  <si>
-    <t>Lê Thị Phúc</t>
-  </si>
-  <si>
-    <t>0941602292</t>
-  </si>
-  <si>
-    <t>lethiphuc702@gmail.com</t>
-  </si>
-  <si>
-    <t>Đặng Hữu Bình</t>
-  </si>
-  <si>
-    <t>0978510767</t>
-  </si>
-  <si>
-    <t>đanghuubinh434@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoàng Minh Trang</t>
-  </si>
-  <si>
-    <t>15/08/2007</t>
-  </si>
-  <si>
-    <t>0990886150</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Như</t>
-  </si>
-  <si>
-    <t>0926692268</t>
-  </si>
-  <si>
-    <t>nguyenvannhu890@gmail.com</t>
-  </si>
-  <si>
-    <t>0901940853</t>
-  </si>
-  <si>
-    <t>đangxuanmai391@gmail.com</t>
-  </si>
-  <si>
-    <t>27/10/2007</t>
-  </si>
-  <si>
-    <t>0997251970</t>
-  </si>
-  <si>
-    <t>Bùi Thị Bình</t>
-  </si>
-  <si>
-    <t>0912519877</t>
-  </si>
-  <si>
-    <t>buithibinh320@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Minh Như</t>
-  </si>
-  <si>
-    <t>0952765587</t>
-  </si>
-  <si>
-    <t>huynhminhnhu239@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Chi</t>
-  </si>
-  <si>
-    <t>04/03/2007</t>
-  </si>
-  <si>
-    <t>0963655756</t>
-  </si>
-  <si>
-    <t>Đỗ Xuân Mai</t>
-  </si>
-  <si>
-    <t>0909504155</t>
-  </si>
-  <si>
-    <t>đoxuanmai559@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Ngọc Hùng</t>
-  </si>
-  <si>
-    <t>0941204273</t>
-  </si>
-  <si>
-    <t>lengochung321@gmail.com</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Trang</t>
-  </si>
-  <si>
-    <t>04/08/2007</t>
-  </si>
-  <si>
-    <t>0935240182</t>
-  </si>
-  <si>
-    <t>Đỗ Minh Bình</t>
-  </si>
-  <si>
-    <t>0929959995</t>
-  </si>
-  <si>
-    <t>đominhbinh552@gmail.com</t>
-  </si>
-  <si>
-    <t>0969139369</t>
-  </si>
-  <si>
-    <t>đoxuanmai124@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Văn Chi</t>
-  </si>
-  <si>
-    <t>17/05/2007</t>
-  </si>
-  <si>
-    <t>0948567168</t>
-  </si>
-  <si>
-    <t>0903180716</t>
-  </si>
-  <si>
-    <t>leminhquan333@gmail.com</t>
-  </si>
-  <si>
-    <t>Đỗ Minh Khánh</t>
-  </si>
-  <si>
-    <t>03/09/2007</t>
-  </si>
-  <si>
-    <t>0966534149</t>
-  </si>
-  <si>
-    <t>Hoàng Thanh Dũng</t>
-  </si>
-  <si>
-    <t>0983363324</t>
-  </si>
-  <si>
-    <t>hoangthanhdung743@gmail.com</t>
-  </si>
-  <si>
-    <t>0924426812</t>
-  </si>
-  <si>
-    <t>phamngoclan255@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Hữu Chi</t>
-  </si>
-  <si>
-    <t>0958490802</t>
-  </si>
-  <si>
-    <t>Phạm Minh Trang</t>
-  </si>
-  <si>
-    <t>0955448373</t>
-  </si>
-  <si>
-    <t>phamminhtrang462@gmail.com</t>
-  </si>
-  <si>
-    <t>0979297353</t>
-  </si>
-  <si>
-    <t>hoangxuanmai636@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Xuân An</t>
-  </si>
-  <si>
-    <t>10/02/2007</t>
-  </si>
-  <si>
-    <t>0950354284</t>
-  </si>
-  <si>
-    <t>0946160278</t>
-  </si>
-  <si>
-    <t>lethanhtrang722@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Thanh Phúc</t>
-  </si>
-  <si>
-    <t>0910475781</t>
-  </si>
-  <si>
-    <t>vothanhphuc492@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Hữu Như</t>
-  </si>
-  <si>
-    <t>26/09/2007</t>
-  </si>
-  <si>
-    <t>0958296368</t>
-  </si>
-  <si>
-    <t>Trần Ngọc Hùng</t>
-  </si>
-  <si>
-    <t>0955394543</t>
-  </si>
-  <si>
-    <t>tranngochung118@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Xuân Bình</t>
-  </si>
-  <si>
-    <t>27/07/2007</t>
-  </si>
-  <si>
-    <t>0963911084</t>
-  </si>
-  <si>
-    <t>0923273440</t>
-  </si>
-  <si>
-    <t>nguyenminhha909@gmail.com</t>
-  </si>
-  <si>
-    <t>Đặng Văn Trang</t>
-  </si>
-  <si>
-    <t>0950165407</t>
-  </si>
-  <si>
-    <t>đangvantrang469@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Xuân Bình</t>
-  </si>
-  <si>
-    <t>26/01/2007</t>
-  </si>
-  <si>
-    <t>0973913647</t>
-  </si>
-  <si>
-    <t>Bùi Minh Lan</t>
-  </si>
-  <si>
-    <t>0940852786</t>
-  </si>
-  <si>
-    <t>buiminhlan741@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Xuân Tú</t>
-  </si>
-  <si>
-    <t>0967183597</t>
-  </si>
-  <si>
-    <t>voxuantu562@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Hữu Khánh</t>
-  </si>
-  <si>
-    <t>07/03/2007</t>
-  </si>
-  <si>
-    <t>0954490496</t>
-  </si>
-  <si>
-    <t>Phạm Thanh Trang</t>
-  </si>
-  <si>
-    <t>0918659948</t>
-  </si>
-  <si>
-    <t>phamthanhtrang288@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Văn Dũng</t>
-  </si>
-  <si>
-    <t>0946965390</t>
-  </si>
-  <si>
-    <t>levandung298@gmail.com</t>
-  </si>
-  <si>
-    <t>0966174662</t>
-  </si>
-  <si>
-    <t>Phạm Hữu Chi</t>
-  </si>
-  <si>
-    <t>0986561657</t>
-  </si>
-  <si>
-    <t>phamhuuchi745@gmail.com</t>
-  </si>
-  <si>
-    <t>Đỗ Minh Quân</t>
-  </si>
-  <si>
-    <t>0967371092</t>
-  </si>
-  <si>
-    <t>đominhquan894@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Minh Phúc</t>
-  </si>
-  <si>
-    <t>0901401020</t>
-  </si>
-  <si>
-    <t>0965144964</t>
-  </si>
-  <si>
-    <t>hoangvanphuc251@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Lan</t>
-  </si>
-  <si>
-    <t>0962054944</t>
-  </si>
-  <si>
-    <t>0955336464</t>
-  </si>
-  <si>
-    <t>phamthiquan411@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Minh Hùng</t>
-  </si>
-  <si>
-    <t>0950543194</t>
-  </si>
-  <si>
-    <t>huynhminhhung800@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Ngọc Tú</t>
-  </si>
-  <si>
-    <t>18/08/2007</t>
-  </si>
-  <si>
-    <t>0948923971</t>
-  </si>
-  <si>
-    <t>Trần Hữu Dũng</t>
-  </si>
-  <si>
-    <t>0909313901</t>
-  </si>
-  <si>
-    <t>tranhuudung534@gmail.com</t>
-  </si>
-  <si>
-    <t>Đặng Thị Trang</t>
-  </si>
-  <si>
-    <t>27/01/2007</t>
-  </si>
-  <si>
-    <t>0920447304</t>
-  </si>
-  <si>
-    <t>Phạm Hữu Lan</t>
-  </si>
-  <si>
-    <t>0932118188</t>
-  </si>
-  <si>
-    <t>phamhuulan284@gmail.com</t>
-  </si>
-  <si>
     <t>Bùi Thị An</t>
   </si>
   <si>
-    <t>0984266678</t>
-  </si>
-  <si>
-    <t>buithian492@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoàng Ngọc Lan</t>
-  </si>
-  <si>
-    <t>11/08/2007</t>
-  </si>
-  <si>
-    <t>0951196341</t>
-  </si>
-  <si>
-    <t>Bùi Xuân Nam</t>
-  </si>
-  <si>
-    <t>0994581899</t>
-  </si>
-  <si>
-    <t>buixuannam308@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Minh Tú</t>
-  </si>
-  <si>
-    <t>0985835958</t>
-  </si>
-  <si>
-    <t>phamminhtu119@gmail.com</t>
-  </si>
-  <si>
-    <t>Đặng Xuân Hùng</t>
-  </si>
-  <si>
-    <t>0927952050</t>
-  </si>
-  <si>
-    <t>Đỗ Thanh Chi</t>
-  </si>
-  <si>
-    <t>0938001999</t>
-  </si>
-  <si>
-    <t>đothanhchi352@gmail.com</t>
-  </si>
-  <si>
-    <t>11/06/2007</t>
-  </si>
-  <si>
-    <t>0976234451</t>
-  </si>
-  <si>
-    <t>Đỗ Minh Như</t>
-  </si>
-  <si>
-    <t>0986182135</t>
-  </si>
-  <si>
-    <t>đominhnhu555@gmail.com</t>
-  </si>
-  <si>
     <t>Bùi Xuân Dũng</t>
-  </si>
-  <si>
-    <t>0904877265</t>
-  </si>
-  <si>
-    <t>buixuandung718@gmail.com</t>
-  </si>
-  <si>
-    <t>13/05/2007</t>
-  </si>
-  <si>
-    <t>0958893263</t>
-  </si>
-  <si>
-    <t>Đỗ Hữu Nam</t>
-  </si>
-  <si>
-    <t>0990459577</t>
-  </si>
-  <si>
-    <t>đohuunam737@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Minh Dũng</t>
-  </si>
-  <si>
-    <t>0942127615</t>
-  </si>
-  <si>
-    <t>leminhdung627@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Trang</t>
-  </si>
-  <si>
-    <t>23/10/2007</t>
-  </si>
-  <si>
-    <t>0959087899</t>
-  </si>
-  <si>
-    <t>Bùi Xuân An</t>
-  </si>
-  <si>
-    <t>0975541004</t>
-  </si>
-  <si>
-    <t>buixuanan163@gmail.com</t>
-  </si>
-  <si>
-    <t>Đỗ Hữu Phúc</t>
-  </si>
-  <si>
-    <t>0929508410</t>
-  </si>
-  <si>
-    <t>đohuuphuc630@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Xuân Dũng</t>
-  </si>
-  <si>
-    <t>0906059602</t>
-  </si>
-  <si>
-    <t>Phạm Ngọc Phúc</t>
-  </si>
-  <si>
-    <t>0941006412</t>
-  </si>
-  <si>
-    <t>phamngocphuc567@gmail.com</t>
-  </si>
-  <si>
-    <t>0947828036</t>
-  </si>
-  <si>
-    <t>đangxuanhung337@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Ngọc Hùng</t>
-  </si>
-  <si>
-    <t>0983141032</t>
-  </si>
-  <si>
-    <t>Phạm Văn Chi</t>
-  </si>
-  <si>
-    <t>0920941698</t>
-  </si>
-  <si>
-    <t>phamvanchi638@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Văn Khánh</t>
-  </si>
-  <si>
-    <t>18/11/2007</t>
-  </si>
-  <si>
-    <t>0927557448</t>
-  </si>
-  <si>
-    <t>0959764183</t>
-  </si>
-  <si>
-    <t>hoangthanhnhu101@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoàng Ngọc Hà</t>
-  </si>
-  <si>
-    <t>0953849836</t>
-  </si>
-  <si>
-    <t>hoangngocha885@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Ngọc Lan</t>
-  </si>
-  <si>
-    <t>05/01/2007</t>
-  </si>
-  <si>
-    <t>0936706759</t>
-  </si>
-  <si>
-    <t>0976563329</t>
-  </si>
-  <si>
-    <t>nguyenhuulan512@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Tú</t>
-  </si>
-  <si>
-    <t>0953220541</t>
-  </si>
-  <si>
-    <t>huynhthitu324@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Thanh Bình</t>
-  </si>
-  <si>
-    <t>0901600752</t>
-  </si>
-  <si>
-    <t>Lê Hữu Hùng</t>
-  </si>
-  <si>
-    <t>0913540409</t>
-  </si>
-  <si>
-    <t>lehuuhung655@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Văn Bình</t>
-  </si>
-  <si>
-    <t>0974204923</t>
-  </si>
-  <si>
-    <t>vovanbinh178@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Hữu Như</t>
-  </si>
-  <si>
-    <t>25/05/2007</t>
-  </si>
-  <si>
-    <t>0908163180</t>
-  </si>
-  <si>
-    <t>0965800162</t>
-  </si>
-  <si>
-    <t>huynhxuandung101@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Hữu Trang</t>
-  </si>
-  <si>
-    <t>0970980085</t>
-  </si>
-  <si>
-    <t>lehuutrang684@gmail.com</t>
-  </si>
-  <si>
-    <t>Đặng Thanh Trang</t>
-  </si>
-  <si>
-    <t>0916215665</t>
-  </si>
-  <si>
-    <t>Đặng Xuân Khánh</t>
-  </si>
-  <si>
-    <t>0984056307</t>
-  </si>
-  <si>
-    <t>đangxuankhanh769@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Thanh Hà</t>
-  </si>
-  <si>
-    <t>0963159277</t>
-  </si>
-  <si>
-    <t>tranthanhha584@gmail.com</t>
-  </si>
-  <si>
-    <t>25/07/2007</t>
-  </si>
-  <si>
-    <t>0939644011</t>
-  </si>
-  <si>
-    <t>Phạm Văn Như</t>
-  </si>
-  <si>
-    <t>0930960570</t>
-  </si>
-  <si>
-    <t>phamvannhu555@gmail.com</t>
-  </si>
-  <si>
-    <t>23/09/2007</t>
-  </si>
-  <si>
-    <t>0910504540</t>
-  </si>
-  <si>
-    <t>0968042663</t>
-  </si>
-  <si>
-    <t>đovanchi272@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Thị Lan</t>
-  </si>
-  <si>
-    <t>0985499136</t>
-  </si>
-  <si>
-    <t>vothilan930@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Xuân Phúc</t>
-  </si>
-  <si>
-    <t>25/12/2007</t>
-  </si>
-  <si>
-    <t>0989566165</t>
-  </si>
-  <si>
-    <t>Lê Minh Khánh</t>
-  </si>
-  <si>
-    <t>0917460411</t>
-  </si>
-  <si>
-    <t>leminhkhanh695@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoàng Xuân Phúc</t>
-  </si>
-  <si>
-    <t>0942112891</t>
-  </si>
-  <si>
-    <t>Đặng Xuân Hà</t>
-  </si>
-  <si>
-    <t>0985216183</t>
-  </si>
-  <si>
-    <t>đangxuanha141@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Thanh Hùng</t>
-  </si>
-  <si>
-    <t>12/09/2007</t>
-  </si>
-  <si>
-    <t>0923829155</t>
-  </si>
-  <si>
-    <t>Bùi Minh Bình</t>
-  </si>
-  <si>
-    <t>0966450352</t>
-  </si>
-  <si>
-    <t>buiminhbinh768@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Hữu Quân</t>
-  </si>
-  <si>
-    <t>0953012584</t>
-  </si>
-  <si>
-    <t>phamhuuquan202@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Xuân Lan</t>
-  </si>
-  <si>
-    <t>06/06/2007</t>
-  </si>
-  <si>
-    <t>0930239576</t>
-  </si>
-  <si>
-    <t>Đỗ Xuân Lan</t>
-  </si>
-  <si>
-    <t>0926895639</t>
-  </si>
-  <si>
-    <t>đoxuanlan446@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Ngọc Lan</t>
-  </si>
-  <si>
-    <t>0926915764</t>
-  </si>
-  <si>
-    <t>0993612408</t>
-  </si>
-  <si>
-    <t>phamhuutrang602@gmail.com</t>
-  </si>
-  <si>
-    <t>Đỗ Thanh Trang</t>
-  </si>
-  <si>
-    <t>0988293716</t>
-  </si>
-  <si>
-    <t>đothanhtrang552@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Hữu Tú</t>
-  </si>
-  <si>
-    <t>18/12/2007</t>
-  </si>
-  <si>
-    <t>0968646819</t>
-  </si>
-  <si>
-    <t>Đỗ Ngọc Trang</t>
-  </si>
-  <si>
-    <t>0906830118</t>
-  </si>
-  <si>
-    <t>đongoctrang649@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Ngọc Dũng</t>
-  </si>
-  <si>
-    <t>0922213615</t>
-  </si>
-  <si>
-    <t>huynhngocdung658@gmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -3629,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3690,12 +2817,12 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>993</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>994</v>
+        <v>703</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3704,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>995</v>
+        <v>704</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -3742,7 +2869,7 @@
     </row>
     <row r="3" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>996</v>
+        <v>705</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -3751,7 +2878,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>999</v>
+        <v>708</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -3789,7 +2916,7 @@
     </row>
     <row r="4" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>997</v>
+        <v>706</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -3798,7 +2925,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>999</v>
+        <v>708</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -3821,7 +2948,7 @@
     </row>
     <row r="5" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>998</v>
+        <v>707</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -3830,7 +2957,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>999</v>
+        <v>708</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -6776,1721 +5903,6 @@
       </c>
       <c r="O81" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>593</v>
-      </c>
-      <c r="B82" t="s">
-        <v>594</v>
-      </c>
-      <c r="C82" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" t="s">
-        <v>161</v>
-      </c>
-      <c r="E82" t="s">
-        <v>595</v>
-      </c>
-      <c r="F82" t="s">
-        <v>596</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" t="s">
-        <v>597</v>
-      </c>
-      <c r="I82" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>599</v>
-      </c>
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" t="s">
-        <v>418</v>
-      </c>
-      <c r="E83" t="s">
-        <v>600</v>
-      </c>
-      <c r="F83" t="s">
-        <v>601</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" t="s">
-        <v>602</v>
-      </c>
-      <c r="I83" t="s">
-        <v>22</v>
-      </c>
-      <c r="J83" t="s">
-        <v>603</v>
-      </c>
-      <c r="K83" t="s">
-        <v>604</v>
-      </c>
-      <c r="L83" t="s">
-        <v>36</v>
-      </c>
-      <c r="M83" t="s">
-        <v>605</v>
-      </c>
-      <c r="N83" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>607</v>
-      </c>
-      <c r="B84" t="s">
-        <v>608</v>
-      </c>
-      <c r="C84" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" t="s">
-        <v>609</v>
-      </c>
-      <c r="F84" t="s">
-        <v>610</v>
-      </c>
-      <c r="G84" t="s">
-        <v>60</v>
-      </c>
-      <c r="H84" t="s">
-        <v>611</v>
-      </c>
-      <c r="I84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" t="s">
-        <v>612</v>
-      </c>
-      <c r="K84" t="s">
-        <v>613</v>
-      </c>
-      <c r="L84" t="s">
-        <v>20</v>
-      </c>
-      <c r="M84" t="s">
-        <v>614</v>
-      </c>
-      <c r="N84" t="s">
-        <v>16</v>
-      </c>
-      <c r="O84" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>616</v>
-      </c>
-      <c r="B85" t="s">
-        <v>617</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" t="s">
-        <v>161</v>
-      </c>
-      <c r="E85" t="s">
-        <v>618</v>
-      </c>
-      <c r="F85" t="s">
-        <v>619</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
-      <c r="H85" t="s">
-        <v>620</v>
-      </c>
-      <c r="I85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" t="s">
-        <v>621</v>
-      </c>
-      <c r="K85" t="s">
-        <v>478</v>
-      </c>
-      <c r="L85" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" t="s">
-        <v>622</v>
-      </c>
-      <c r="N85" t="s">
-        <v>22</v>
-      </c>
-      <c r="O85" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>619</v>
-      </c>
-      <c r="B86" t="s">
-        <v>624</v>
-      </c>
-      <c r="C86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" t="s">
-        <v>65</v>
-      </c>
-      <c r="E86" t="s">
-        <v>625</v>
-      </c>
-      <c r="F86" t="s">
-        <v>626</v>
-      </c>
-      <c r="G86" t="s">
-        <v>68</v>
-      </c>
-      <c r="H86" t="s">
-        <v>627</v>
-      </c>
-      <c r="I86" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" t="s">
-        <v>628</v>
-      </c>
-      <c r="K86" t="s">
-        <v>629</v>
-      </c>
-      <c r="L86" t="s">
-        <v>56</v>
-      </c>
-      <c r="M86" t="s">
-        <v>630</v>
-      </c>
-      <c r="N86" t="s">
-        <v>16</v>
-      </c>
-      <c r="O86" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>632</v>
-      </c>
-      <c r="B87" t="s">
-        <v>633</v>
-      </c>
-      <c r="C87" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" t="s">
-        <v>418</v>
-      </c>
-      <c r="E87" t="s">
-        <v>634</v>
-      </c>
-      <c r="F87" t="s">
-        <v>635</v>
-      </c>
-      <c r="G87" t="s">
-        <v>68</v>
-      </c>
-      <c r="H87" t="s">
-        <v>636</v>
-      </c>
-      <c r="I87" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" t="s">
-        <v>637</v>
-      </c>
-      <c r="K87" t="s">
-        <v>638</v>
-      </c>
-      <c r="L87" t="s">
-        <v>60</v>
-      </c>
-      <c r="M87" t="s">
-        <v>639</v>
-      </c>
-      <c r="N87" t="s">
-        <v>16</v>
-      </c>
-      <c r="O87" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>641</v>
-      </c>
-      <c r="B88" t="s">
-        <v>642</v>
-      </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" t="s">
-        <v>643</v>
-      </c>
-      <c r="F88" t="s">
-        <v>644</v>
-      </c>
-      <c r="G88" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" t="s">
-        <v>645</v>
-      </c>
-      <c r="I88" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" t="s">
-        <v>646</v>
-      </c>
-      <c r="K88" t="s">
-        <v>635</v>
-      </c>
-      <c r="L88" t="s">
-        <v>32</v>
-      </c>
-      <c r="M88" t="s">
-        <v>647</v>
-      </c>
-      <c r="N88" t="s">
-        <v>16</v>
-      </c>
-      <c r="O88" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>649</v>
-      </c>
-      <c r="B89" t="s">
-        <v>650</v>
-      </c>
-      <c r="C89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E89" t="s">
-        <v>651</v>
-      </c>
-      <c r="F89" t="s">
-        <v>392</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
-      </c>
-      <c r="H89" t="s">
-        <v>652</v>
-      </c>
-      <c r="I89" t="s">
-        <v>22</v>
-      </c>
-      <c r="J89" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>654</v>
-      </c>
-      <c r="B90" t="s">
-        <v>655</v>
-      </c>
-      <c r="C90" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" t="s">
-        <v>656</v>
-      </c>
-      <c r="F90" t="s">
-        <v>657</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" t="s">
-        <v>658</v>
-      </c>
-      <c r="I90" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90" t="s">
-        <v>659</v>
-      </c>
-      <c r="K90" t="s">
-        <v>207</v>
-      </c>
-      <c r="L90" t="s">
-        <v>56</v>
-      </c>
-      <c r="M90" t="s">
-        <v>660</v>
-      </c>
-      <c r="N90" t="s">
-        <v>16</v>
-      </c>
-      <c r="O90" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>662</v>
-      </c>
-      <c r="B91" t="s">
-        <v>479</v>
-      </c>
-      <c r="C91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" t="s">
-        <v>663</v>
-      </c>
-      <c r="F91" t="s">
-        <v>664</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" t="s">
-        <v>665</v>
-      </c>
-      <c r="I91" t="s">
-        <v>22</v>
-      </c>
-      <c r="J91" t="s">
-        <v>666</v>
-      </c>
-      <c r="K91" t="s">
-        <v>363</v>
-      </c>
-      <c r="L91" t="s">
-        <v>60</v>
-      </c>
-      <c r="M91" t="s">
-        <v>667</v>
-      </c>
-      <c r="N91" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>669</v>
-      </c>
-      <c r="B92" t="s">
-        <v>670</v>
-      </c>
-      <c r="C92" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" t="s">
-        <v>261</v>
-      </c>
-      <c r="E92" t="s">
-        <v>671</v>
-      </c>
-      <c r="F92" t="s">
-        <v>587</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" t="s">
-        <v>672</v>
-      </c>
-      <c r="I92" t="s">
-        <v>22</v>
-      </c>
-      <c r="J92" t="s">
-        <v>673</v>
-      </c>
-      <c r="K92" t="s">
-        <v>674</v>
-      </c>
-      <c r="L92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M92" t="s">
-        <v>675</v>
-      </c>
-      <c r="N92" t="s">
-        <v>16</v>
-      </c>
-      <c r="O92" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>677</v>
-      </c>
-      <c r="B93" t="s">
-        <v>678</v>
-      </c>
-      <c r="C93" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" t="s">
-        <v>679</v>
-      </c>
-      <c r="F93" t="s">
-        <v>680</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" t="s">
-        <v>681</v>
-      </c>
-      <c r="I93" t="s">
-        <v>22</v>
-      </c>
-      <c r="J93" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>683</v>
-      </c>
-      <c r="B94" t="s">
-        <v>684</v>
-      </c>
-      <c r="C94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>685</v>
-      </c>
-      <c r="F94" t="s">
-        <v>386</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
-      <c r="H94" t="s">
-        <v>686</v>
-      </c>
-      <c r="I94" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" t="s">
-        <v>687</v>
-      </c>
-      <c r="K94" t="s">
-        <v>688</v>
-      </c>
-      <c r="L94" t="s">
-        <v>32</v>
-      </c>
-      <c r="M94" t="s">
-        <v>689</v>
-      </c>
-      <c r="N94" t="s">
-        <v>16</v>
-      </c>
-      <c r="O94" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>691</v>
-      </c>
-      <c r="B95" t="s">
-        <v>692</v>
-      </c>
-      <c r="C95" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" t="s">
-        <v>161</v>
-      </c>
-      <c r="E95" t="s">
-        <v>693</v>
-      </c>
-      <c r="F95" t="s">
-        <v>694</v>
-      </c>
-      <c r="G95" t="s">
-        <v>56</v>
-      </c>
-      <c r="H95" t="s">
-        <v>695</v>
-      </c>
-      <c r="I95" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95" t="s">
-        <v>696</v>
-      </c>
-      <c r="K95" t="s">
-        <v>697</v>
-      </c>
-      <c r="L95" t="s">
-        <v>36</v>
-      </c>
-      <c r="M95" t="s">
-        <v>698</v>
-      </c>
-      <c r="N95" t="s">
-        <v>16</v>
-      </c>
-      <c r="O95" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>700</v>
-      </c>
-      <c r="B96" t="s">
-        <v>701</v>
-      </c>
-      <c r="C96" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" t="s">
-        <v>702</v>
-      </c>
-      <c r="F96" t="s">
-        <v>703</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" t="s">
-        <v>704</v>
-      </c>
-      <c r="I96" t="s">
-        <v>22</v>
-      </c>
-      <c r="J96" t="s">
-        <v>705</v>
-      </c>
-      <c r="K96" t="s">
-        <v>706</v>
-      </c>
-      <c r="L96" t="s">
-        <v>60</v>
-      </c>
-      <c r="M96" t="s">
-        <v>707</v>
-      </c>
-      <c r="N96" t="s">
-        <v>16</v>
-      </c>
-      <c r="O96" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>413</v>
-      </c>
-      <c r="B97" t="s">
-        <v>347</v>
-      </c>
-      <c r="C97" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E97" t="s">
-        <v>709</v>
-      </c>
-      <c r="F97" t="s">
-        <v>710</v>
-      </c>
-      <c r="G97" t="s">
-        <v>56</v>
-      </c>
-      <c r="H97" t="s">
-        <v>711</v>
-      </c>
-      <c r="I97" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" t="s">
-        <v>712</v>
-      </c>
-      <c r="K97" t="s">
-        <v>713</v>
-      </c>
-      <c r="L97" t="s">
-        <v>60</v>
-      </c>
-      <c r="M97" t="s">
-        <v>714</v>
-      </c>
-      <c r="N97" t="s">
-        <v>16</v>
-      </c>
-      <c r="O97" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>716</v>
-      </c>
-      <c r="B98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" t="s">
-        <v>161</v>
-      </c>
-      <c r="E98" t="s">
-        <v>717</v>
-      </c>
-      <c r="F98" t="s">
-        <v>226</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" t="s">
-        <v>718</v>
-      </c>
-      <c r="I98" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>720</v>
-      </c>
-      <c r="B99" t="s">
-        <v>381</v>
-      </c>
-      <c r="C99" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" t="s">
-        <v>261</v>
-      </c>
-      <c r="E99" t="s">
-        <v>721</v>
-      </c>
-      <c r="F99" t="s">
-        <v>144</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" t="s">
-        <v>722</v>
-      </c>
-      <c r="I99" t="s">
-        <v>22</v>
-      </c>
-      <c r="J99" t="s">
-        <v>723</v>
-      </c>
-      <c r="K99" t="s">
-        <v>724</v>
-      </c>
-      <c r="L99" t="s">
-        <v>56</v>
-      </c>
-      <c r="M99" t="s">
-        <v>725</v>
-      </c>
-      <c r="N99" t="s">
-        <v>16</v>
-      </c>
-      <c r="O99" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>727</v>
-      </c>
-      <c r="B100" t="s">
-        <v>728</v>
-      </c>
-      <c r="C100" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" t="s">
-        <v>46</v>
-      </c>
-      <c r="E100" t="s">
-        <v>729</v>
-      </c>
-      <c r="F100" t="s">
-        <v>730</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" t="s">
-        <v>731</v>
-      </c>
-      <c r="I100" t="s">
-        <v>22</v>
-      </c>
-      <c r="J100" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>733</v>
-      </c>
-      <c r="B101" t="s">
-        <v>734</v>
-      </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" t="s">
-        <v>735</v>
-      </c>
-      <c r="F101" t="s">
-        <v>736</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" t="s">
-        <v>737</v>
-      </c>
-      <c r="I101" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101" t="s">
-        <v>738</v>
-      </c>
-      <c r="K101" t="s">
-        <v>739</v>
-      </c>
-      <c r="L101" t="s">
-        <v>36</v>
-      </c>
-      <c r="M101" t="s">
-        <v>740</v>
-      </c>
-      <c r="N101" t="s">
-        <v>16</v>
-      </c>
-      <c r="O101" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>742</v>
-      </c>
-      <c r="B102" t="s">
-        <v>743</v>
-      </c>
-      <c r="C102" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E102" t="s">
-        <v>744</v>
-      </c>
-      <c r="F102" t="s">
-        <v>745</v>
-      </c>
-      <c r="G102" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" t="s">
-        <v>746</v>
-      </c>
-      <c r="I102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102" t="s">
-        <v>747</v>
-      </c>
-      <c r="K102" t="s">
-        <v>748</v>
-      </c>
-      <c r="L102" t="s">
-        <v>32</v>
-      </c>
-      <c r="M102" t="s">
-        <v>749</v>
-      </c>
-      <c r="N102" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>751</v>
-      </c>
-      <c r="B103" t="s">
-        <v>86</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" t="s">
-        <v>65</v>
-      </c>
-      <c r="E103" t="s">
-        <v>752</v>
-      </c>
-      <c r="F103" t="s">
-        <v>753</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
-      <c r="H103" t="s">
-        <v>754</v>
-      </c>
-      <c r="I103" t="s">
-        <v>22</v>
-      </c>
-      <c r="J103" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>590</v>
-      </c>
-      <c r="B104" t="s">
-        <v>756</v>
-      </c>
-      <c r="C104" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" t="s">
-        <v>261</v>
-      </c>
-      <c r="E104" t="s">
-        <v>757</v>
-      </c>
-      <c r="F104" t="s">
-        <v>758</v>
-      </c>
-      <c r="G104" t="s">
-        <v>60</v>
-      </c>
-      <c r="H104" t="s">
-        <v>759</v>
-      </c>
-      <c r="I104" t="s">
-        <v>22</v>
-      </c>
-      <c r="J104" t="s">
-        <v>760</v>
-      </c>
-      <c r="K104" t="s">
-        <v>761</v>
-      </c>
-      <c r="L104" t="s">
-        <v>56</v>
-      </c>
-      <c r="M104" t="s">
-        <v>762</v>
-      </c>
-      <c r="N104" t="s">
-        <v>16</v>
-      </c>
-      <c r="O104" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>332</v>
-      </c>
-      <c r="B105" t="s">
-        <v>764</v>
-      </c>
-      <c r="C105" t="s">
-        <v>22</v>
-      </c>
-      <c r="D105" t="s">
-        <v>93</v>
-      </c>
-      <c r="E105" t="s">
-        <v>765</v>
-      </c>
-      <c r="F105" t="s">
-        <v>766</v>
-      </c>
-      <c r="G105" t="s">
-        <v>32</v>
-      </c>
-      <c r="H105" t="s">
-        <v>767</v>
-      </c>
-      <c r="I105" t="s">
-        <v>22</v>
-      </c>
-      <c r="J105" t="s">
-        <v>768</v>
-      </c>
-      <c r="K105" t="s">
-        <v>769</v>
-      </c>
-      <c r="L105" t="s">
-        <v>68</v>
-      </c>
-      <c r="M105" t="s">
-        <v>770</v>
-      </c>
-      <c r="N105" t="s">
-        <v>16</v>
-      </c>
-      <c r="O105" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>772</v>
-      </c>
-      <c r="B106" t="s">
-        <v>773</v>
-      </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" t="s">
-        <v>418</v>
-      </c>
-      <c r="E106" t="s">
-        <v>774</v>
-      </c>
-      <c r="F106" t="s">
-        <v>775</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" t="s">
-        <v>776</v>
-      </c>
-      <c r="I106" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106" t="s">
-        <v>777</v>
-      </c>
-      <c r="K106" t="s">
-        <v>778</v>
-      </c>
-      <c r="L106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M106" t="s">
-        <v>779</v>
-      </c>
-      <c r="N106" t="s">
-        <v>16</v>
-      </c>
-      <c r="O106" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>781</v>
-      </c>
-      <c r="B107" t="s">
-        <v>148</v>
-      </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E107" t="s">
-        <v>782</v>
-      </c>
-      <c r="F107" t="s">
-        <v>783</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" t="s">
-        <v>784</v>
-      </c>
-      <c r="I107" t="s">
-        <v>22</v>
-      </c>
-      <c r="J107" t="s">
-        <v>785</v>
-      </c>
-      <c r="K107" t="s">
-        <v>751</v>
-      </c>
-      <c r="L107" t="s">
-        <v>32</v>
-      </c>
-      <c r="M107" t="s">
-        <v>786</v>
-      </c>
-      <c r="N107" t="s">
-        <v>16</v>
-      </c>
-      <c r="O107" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>788</v>
-      </c>
-      <c r="B108" t="s">
-        <v>461</v>
-      </c>
-      <c r="C108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" t="s">
-        <v>789</v>
-      </c>
-      <c r="F108" t="s">
-        <v>790</v>
-      </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
-      <c r="H108" t="s">
-        <v>791</v>
-      </c>
-      <c r="I108" t="s">
-        <v>16</v>
-      </c>
-      <c r="J108" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>793</v>
-      </c>
-      <c r="B109" t="s">
-        <v>794</v>
-      </c>
-      <c r="C109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" t="s">
-        <v>65</v>
-      </c>
-      <c r="E109" t="s">
-        <v>795</v>
-      </c>
-      <c r="F109" t="s">
-        <v>578</v>
-      </c>
-      <c r="G109" t="s">
-        <v>68</v>
-      </c>
-      <c r="H109" t="s">
-        <v>796</v>
-      </c>
-      <c r="I109" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" t="s">
-        <v>797</v>
-      </c>
-      <c r="K109" t="s">
-        <v>798</v>
-      </c>
-      <c r="L109" t="s">
-        <v>25</v>
-      </c>
-      <c r="M109" t="s">
-        <v>799</v>
-      </c>
-      <c r="N109" t="s">
-        <v>16</v>
-      </c>
-      <c r="O109" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>801</v>
-      </c>
-      <c r="B110" t="s">
-        <v>802</v>
-      </c>
-      <c r="C110" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" t="s">
-        <v>418</v>
-      </c>
-      <c r="E110" t="s">
-        <v>803</v>
-      </c>
-      <c r="F110" t="s">
-        <v>720</v>
-      </c>
-      <c r="G110" t="s">
-        <v>68</v>
-      </c>
-      <c r="H110" t="s">
-        <v>804</v>
-      </c>
-      <c r="I110" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" t="s">
-        <v>805</v>
-      </c>
-      <c r="K110" t="s">
-        <v>806</v>
-      </c>
-      <c r="L110" t="s">
-        <v>32</v>
-      </c>
-      <c r="M110" t="s">
-        <v>807</v>
-      </c>
-      <c r="N110" t="s">
-        <v>16</v>
-      </c>
-      <c r="O110" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>809</v>
-      </c>
-      <c r="B111" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111" t="s">
-        <v>53</v>
-      </c>
-      <c r="E111" t="s">
-        <v>810</v>
-      </c>
-      <c r="F111" t="s">
-        <v>811</v>
-      </c>
-      <c r="G111" t="s">
-        <v>36</v>
-      </c>
-      <c r="H111" t="s">
-        <v>812</v>
-      </c>
-      <c r="I111" t="s">
-        <v>22</v>
-      </c>
-      <c r="J111" t="s">
-        <v>813</v>
-      </c>
-      <c r="K111" t="s">
-        <v>814</v>
-      </c>
-      <c r="L111" t="s">
-        <v>20</v>
-      </c>
-      <c r="M111" t="s">
-        <v>815</v>
-      </c>
-      <c r="N111" t="s">
-        <v>16</v>
-      </c>
-      <c r="O111" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>817</v>
-      </c>
-      <c r="B112" t="s">
-        <v>818</v>
-      </c>
-      <c r="C112" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112" t="s">
-        <v>261</v>
-      </c>
-      <c r="E112" t="s">
-        <v>819</v>
-      </c>
-      <c r="F112" t="s">
-        <v>358</v>
-      </c>
-      <c r="G112" t="s">
-        <v>36</v>
-      </c>
-      <c r="H112" t="s">
-        <v>820</v>
-      </c>
-      <c r="I112" t="s">
-        <v>22</v>
-      </c>
-      <c r="J112" t="s">
-        <v>821</v>
-      </c>
-      <c r="K112" t="s">
-        <v>822</v>
-      </c>
-      <c r="L112" t="s">
-        <v>20</v>
-      </c>
-      <c r="M112" t="s">
-        <v>823</v>
-      </c>
-      <c r="N112" t="s">
-        <v>16</v>
-      </c>
-      <c r="O112" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>825</v>
-      </c>
-      <c r="B113" t="s">
-        <v>370</v>
-      </c>
-      <c r="C113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" t="s">
-        <v>826</v>
-      </c>
-      <c r="F113" t="s">
-        <v>827</v>
-      </c>
-      <c r="G113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H113" t="s">
-        <v>828</v>
-      </c>
-      <c r="I113" t="s">
-        <v>22</v>
-      </c>
-      <c r="J113" t="s">
-        <v>829</v>
-      </c>
-      <c r="K113" t="s">
-        <v>830</v>
-      </c>
-      <c r="L113" t="s">
-        <v>56</v>
-      </c>
-      <c r="M113" t="s">
-        <v>831</v>
-      </c>
-      <c r="N113" t="s">
-        <v>16</v>
-      </c>
-      <c r="O113" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>587</v>
-      </c>
-      <c r="B114" t="s">
-        <v>833</v>
-      </c>
-      <c r="C114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" t="s">
-        <v>418</v>
-      </c>
-      <c r="E114" t="s">
-        <v>834</v>
-      </c>
-      <c r="F114" t="s">
-        <v>835</v>
-      </c>
-      <c r="G114" t="s">
-        <v>60</v>
-      </c>
-      <c r="H114" t="s">
-        <v>836</v>
-      </c>
-      <c r="I114" t="s">
-        <v>16</v>
-      </c>
-      <c r="J114" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>626</v>
-      </c>
-      <c r="B115" t="s">
-        <v>838</v>
-      </c>
-      <c r="C115" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" t="s">
-        <v>839</v>
-      </c>
-      <c r="F115" t="s">
-        <v>547</v>
-      </c>
-      <c r="G115" t="s">
-        <v>68</v>
-      </c>
-      <c r="H115" t="s">
-        <v>840</v>
-      </c>
-      <c r="I115" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115" t="s">
-        <v>841</v>
-      </c>
-      <c r="K115" t="s">
-        <v>842</v>
-      </c>
-      <c r="L115" t="s">
-        <v>36</v>
-      </c>
-      <c r="M115" t="s">
-        <v>843</v>
-      </c>
-      <c r="N115" t="s">
-        <v>22</v>
-      </c>
-      <c r="O115" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>845</v>
-      </c>
-      <c r="B116" t="s">
-        <v>846</v>
-      </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" t="s">
-        <v>261</v>
-      </c>
-      <c r="E116" t="s">
-        <v>847</v>
-      </c>
-      <c r="F116" t="s">
-        <v>848</v>
-      </c>
-      <c r="G116" t="s">
-        <v>60</v>
-      </c>
-      <c r="H116" t="s">
-        <v>849</v>
-      </c>
-      <c r="I116" t="s">
-        <v>22</v>
-      </c>
-      <c r="J116" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>851</v>
-      </c>
-      <c r="B117" t="s">
-        <v>756</v>
-      </c>
-      <c r="C117" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117" t="s">
-        <v>29</v>
-      </c>
-      <c r="E117" t="s">
-        <v>852</v>
-      </c>
-      <c r="F117" t="s">
-        <v>853</v>
-      </c>
-      <c r="G117" t="s">
-        <v>56</v>
-      </c>
-      <c r="H117" t="s">
-        <v>854</v>
-      </c>
-      <c r="I117" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>856</v>
-      </c>
-      <c r="B118" t="s">
-        <v>857</v>
-      </c>
-      <c r="C118" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" t="s">
-        <v>65</v>
-      </c>
-      <c r="E118" t="s">
-        <v>858</v>
-      </c>
-      <c r="F118" t="s">
-        <v>859</v>
-      </c>
-      <c r="G118" t="s">
-        <v>68</v>
-      </c>
-      <c r="H118" t="s">
-        <v>860</v>
-      </c>
-      <c r="I118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" t="s">
-        <v>861</v>
-      </c>
-      <c r="K118" t="s">
-        <v>862</v>
-      </c>
-      <c r="L118" t="s">
-        <v>60</v>
-      </c>
-      <c r="M118" t="s">
-        <v>863</v>
-      </c>
-      <c r="N118" t="s">
-        <v>16</v>
-      </c>
-      <c r="O118" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>865</v>
-      </c>
-      <c r="B119" t="s">
-        <v>866</v>
-      </c>
-      <c r="C119" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" t="s">
-        <v>867</v>
-      </c>
-      <c r="F119" t="s">
-        <v>868</v>
-      </c>
-      <c r="G119" t="s">
-        <v>32</v>
-      </c>
-      <c r="H119" t="s">
-        <v>869</v>
-      </c>
-      <c r="I119" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>871</v>
-      </c>
-      <c r="B120" t="s">
-        <v>554</v>
-      </c>
-      <c r="C120" t="s">
-        <v>22</v>
-      </c>
-      <c r="D120" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" t="s">
-        <v>872</v>
-      </c>
-      <c r="F120" t="s">
-        <v>499</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" t="s">
-        <v>873</v>
-      </c>
-      <c r="I120" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" t="s">
-        <v>874</v>
-      </c>
-      <c r="K120" t="s">
-        <v>875</v>
-      </c>
-      <c r="L120" t="s">
-        <v>60</v>
-      </c>
-      <c r="M120" t="s">
-        <v>876</v>
-      </c>
-      <c r="N120" t="s">
-        <v>16</v>
-      </c>
-      <c r="O120" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>878</v>
-      </c>
-      <c r="B121" t="s">
-        <v>879</v>
-      </c>
-      <c r="C121" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" t="s">
-        <v>93</v>
-      </c>
-      <c r="E121" t="s">
-        <v>880</v>
-      </c>
-      <c r="F121" t="s">
-        <v>881</v>
-      </c>
-      <c r="G121" t="s">
-        <v>32</v>
-      </c>
-      <c r="H121" t="s">
-        <v>882</v>
-      </c>
-      <c r="I121" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" t="s">
-        <v>883</v>
-      </c>
-      <c r="K121" t="s">
-        <v>884</v>
-      </c>
-      <c r="L121" t="s">
-        <v>32</v>
-      </c>
-      <c r="M121" t="s">
-        <v>885</v>
-      </c>
-      <c r="N121" t="s">
-        <v>16</v>
-      </c>
-      <c r="O121" t="s">
-        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -8524,21 +5936,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>887</v>
+        <v>596</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>888</v>
+        <v>597</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>889</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
-        <v>890</v>
+        <v>599</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -8547,24 +5959,24 @@
         <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>891</v>
+        <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>892</v>
+        <v>601</v>
       </c>
       <c r="G2" t="s">
-        <v>893</v>
+        <v>602</v>
       </c>
       <c r="H2" t="s">
-        <v>894</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>895</v>
+        <v>604</v>
       </c>
       <c r="B3" t="s">
-        <v>896</v>
+        <v>605</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -8573,24 +5985,24 @@
         <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>897</v>
+        <v>606</v>
       </c>
       <c r="F3" t="s">
-        <v>898</v>
+        <v>607</v>
       </c>
       <c r="G3" t="s">
-        <v>893</v>
+        <v>602</v>
       </c>
       <c r="H3" t="s">
-        <v>899</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>900</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>901</v>
+        <v>610</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -8599,24 +6011,24 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>902</v>
+        <v>611</v>
       </c>
       <c r="F4" t="s">
-        <v>903</v>
+        <v>612</v>
       </c>
       <c r="G4" t="s">
-        <v>904</v>
+        <v>613</v>
       </c>
       <c r="H4" t="s">
-        <v>905</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>906</v>
+        <v>615</v>
       </c>
       <c r="B5" t="s">
-        <v>907</v>
+        <v>616</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -8625,24 +6037,24 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>908</v>
+        <v>617</v>
       </c>
       <c r="F5" t="s">
-        <v>909</v>
+        <v>618</v>
       </c>
       <c r="G5" t="s">
-        <v>910</v>
+        <v>619</v>
       </c>
       <c r="H5" t="s">
-        <v>911</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>912</v>
+        <v>621</v>
       </c>
       <c r="B6" t="s">
-        <v>913</v>
+        <v>622</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -8651,16 +6063,16 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>914</v>
+        <v>623</v>
       </c>
       <c r="F6" t="s">
-        <v>915</v>
+        <v>624</v>
       </c>
       <c r="G6" t="s">
-        <v>916</v>
+        <v>625</v>
       </c>
       <c r="H6" t="s">
-        <v>911</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -8668,7 +6080,7 @@
         <v>535</v>
       </c>
       <c r="B7" t="s">
-        <v>917</v>
+        <v>626</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -8677,24 +6089,24 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>918</v>
+        <v>627</v>
       </c>
       <c r="F7" t="s">
-        <v>919</v>
+        <v>628</v>
       </c>
       <c r="G7" t="s">
-        <v>920</v>
+        <v>629</v>
       </c>
       <c r="H7" t="s">
-        <v>921</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>922</v>
+        <v>631</v>
       </c>
       <c r="B8" t="s">
-        <v>923</v>
+        <v>632</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -8703,24 +6115,24 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>924</v>
+        <v>633</v>
       </c>
       <c r="F8" t="s">
-        <v>925</v>
+        <v>634</v>
       </c>
       <c r="G8" t="s">
-        <v>926</v>
+        <v>635</v>
       </c>
       <c r="H8" t="s">
-        <v>927</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>928</v>
+        <v>637</v>
       </c>
       <c r="B9" t="s">
-        <v>929</v>
+        <v>638</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -8729,24 +6141,24 @@
         <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>930</v>
+        <v>639</v>
       </c>
       <c r="F9" t="s">
-        <v>931</v>
+        <v>640</v>
       </c>
       <c r="G9" t="s">
-        <v>932</v>
+        <v>641</v>
       </c>
       <c r="H9" t="s">
-        <v>933</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>934</v>
+        <v>643</v>
       </c>
       <c r="B10" t="s">
-        <v>935</v>
+        <v>644</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -8755,24 +6167,24 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>936</v>
+        <v>645</v>
       </c>
       <c r="F10" t="s">
-        <v>937</v>
+        <v>646</v>
       </c>
       <c r="G10" t="s">
-        <v>938</v>
+        <v>647</v>
       </c>
       <c r="H10" t="s">
-        <v>939</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>940</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s">
-        <v>941</v>
+        <v>650</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -8781,24 +6193,24 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>942</v>
+        <v>651</v>
       </c>
       <c r="F11" t="s">
-        <v>943</v>
+        <v>652</v>
       </c>
       <c r="G11" t="s">
-        <v>944</v>
+        <v>653</v>
       </c>
       <c r="H11" t="s">
-        <v>945</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>761</v>
+        <v>595</v>
       </c>
       <c r="B12" t="s">
-        <v>946</v>
+        <v>655</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -8807,24 +6219,24 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>947</v>
+        <v>656</v>
       </c>
       <c r="F12" t="s">
-        <v>948</v>
+        <v>657</v>
       </c>
       <c r="G12" t="s">
-        <v>916</v>
+        <v>625</v>
       </c>
       <c r="H12" t="s">
-        <v>949</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>739</v>
+        <v>594</v>
       </c>
       <c r="B13" t="s">
-        <v>950</v>
+        <v>659</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -8833,24 +6245,24 @@
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>951</v>
+        <v>660</v>
       </c>
       <c r="F13" t="s">
-        <v>952</v>
+        <v>661</v>
       </c>
       <c r="G13" t="s">
-        <v>953</v>
+        <v>662</v>
       </c>
       <c r="H13" t="s">
-        <v>954</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>955</v>
+        <v>664</v>
       </c>
       <c r="B14" t="s">
-        <v>956</v>
+        <v>665</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -8859,16 +6271,16 @@
         <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>957</v>
+        <v>666</v>
       </c>
       <c r="F14" t="s">
-        <v>958</v>
+        <v>667</v>
       </c>
       <c r="G14" t="s">
-        <v>959</v>
+        <v>668</v>
       </c>
       <c r="H14" t="s">
-        <v>960</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -8876,7 +6288,7 @@
         <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>961</v>
+        <v>670</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -8885,16 +6297,16 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>962</v>
+        <v>671</v>
       </c>
       <c r="F15" t="s">
-        <v>963</v>
+        <v>672</v>
       </c>
       <c r="G15" t="s">
-        <v>964</v>
+        <v>673</v>
       </c>
       <c r="H15" t="s">
-        <v>965</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -8902,7 +6314,7 @@
         <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>966</v>
+        <v>675</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -8911,24 +6323,24 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>967</v>
+        <v>676</v>
       </c>
       <c r="F16" t="s">
-        <v>968</v>
+        <v>677</v>
       </c>
       <c r="G16" t="s">
-        <v>969</v>
+        <v>678</v>
       </c>
       <c r="H16" t="s">
-        <v>970</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>971</v>
+        <v>680</v>
       </c>
       <c r="B17" t="s">
-        <v>972</v>
+        <v>681</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -8937,16 +6349,16 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>973</v>
+        <v>682</v>
       </c>
       <c r="F17" t="s">
-        <v>974</v>
+        <v>683</v>
       </c>
       <c r="G17" t="s">
-        <v>904</v>
+        <v>613</v>
       </c>
       <c r="H17" t="s">
-        <v>975</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -8954,7 +6366,7 @@
         <v>526</v>
       </c>
       <c r="B18" t="s">
-        <v>976</v>
+        <v>685</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -8963,24 +6375,24 @@
         <v>418</v>
       </c>
       <c r="E18" t="s">
-        <v>977</v>
+        <v>686</v>
       </c>
       <c r="F18" t="s">
-        <v>978</v>
+        <v>687</v>
       </c>
       <c r="G18" t="s">
-        <v>938</v>
+        <v>647</v>
       </c>
       <c r="H18" t="s">
-        <v>960</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>979</v>
+        <v>688</v>
       </c>
       <c r="B19" t="s">
-        <v>980</v>
+        <v>689</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -8989,24 +6401,24 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>981</v>
+        <v>690</v>
       </c>
       <c r="F19" t="s">
-        <v>982</v>
+        <v>691</v>
       </c>
       <c r="G19" t="s">
-        <v>916</v>
+        <v>625</v>
       </c>
       <c r="H19" t="s">
-        <v>983</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>984</v>
+        <v>693</v>
       </c>
       <c r="B20" t="s">
-        <v>985</v>
+        <v>694</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -9015,24 +6427,24 @@
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>986</v>
+        <v>695</v>
       </c>
       <c r="F20" t="s">
-        <v>987</v>
+        <v>696</v>
       </c>
       <c r="G20" t="s">
-        <v>938</v>
+        <v>647</v>
       </c>
       <c r="H20" t="s">
-        <v>988</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>989</v>
+        <v>698</v>
       </c>
       <c r="B21" t="s">
-        <v>990</v>
+        <v>699</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -9041,16 +6453,16 @@
         <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>991</v>
+        <v>700</v>
       </c>
       <c r="F21" t="s">
-        <v>992</v>
+        <v>701</v>
       </c>
       <c r="G21" t="s">
-        <v>916</v>
+        <v>625</v>
       </c>
       <c r="H21" t="s">
-        <v>960</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/web/backend/Python-services/src/data/xlsx/sample/FAMS_12.xlsx
+++ b/web/backend/Python-services/src/data/xlsx/sample/FAMS_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB66E717-EF7C-4C65-9C2C-30F851256578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B99841-BF1B-4A1A-A1F1-29530D2CF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="5184" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="710">
   <si>
     <t>Họ và Tên</t>
   </si>
@@ -2148,6 +2148,9 @@
   </si>
   <si>
     <t>Bình Định</t>
+  </si>
+  <si>
+    <t>Số lượng tiết học có thể dạy cho 1 tuần</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2210,17 +2213,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2758,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
@@ -5913,13 +5945,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="A2:I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="52.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5944,8 +5981,11 @@
       <c r="H1" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -5970,8 +6010,11 @@
       <c r="H2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>604</v>
       </c>
@@ -5996,8 +6039,11 @@
       <c r="H3" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>609</v>
       </c>
@@ -6022,8 +6068,11 @@
       <c r="H4" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>615</v>
       </c>
@@ -6048,8 +6097,11 @@
       <c r="H5" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>621</v>
       </c>
@@ -6074,8 +6126,11 @@
       <c r="H6" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>535</v>
       </c>
@@ -6100,8 +6155,11 @@
       <c r="H7" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>631</v>
       </c>
@@ -6126,8 +6184,11 @@
       <c r="H8" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>637</v>
       </c>
@@ -6152,8 +6213,11 @@
       <c r="H9" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>643</v>
       </c>
@@ -6178,8 +6242,11 @@
       <c r="H10" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>649</v>
       </c>
@@ -6204,8 +6271,11 @@
       <c r="H11" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>595</v>
       </c>
@@ -6230,8 +6300,11 @@
       <c r="H12" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>594</v>
       </c>
@@ -6256,8 +6329,11 @@
       <c r="H13" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>664</v>
       </c>
@@ -6282,8 +6358,11 @@
       <c r="H14" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -6308,8 +6387,11 @@
       <c r="H15" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -6334,8 +6416,11 @@
       <c r="H16" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>680</v>
       </c>
@@ -6360,8 +6445,11 @@
       <c r="H17" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>526</v>
       </c>
@@ -6386,8 +6474,11 @@
       <c r="H18" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>688</v>
       </c>
@@ -6412,8 +6503,11 @@
       <c r="H19" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>693</v>
       </c>
@@ -6438,8 +6532,11 @@
       <c r="H20" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>698</v>
       </c>
@@ -6463,6 +6560,9 @@
       </c>
       <c r="H21" t="s">
         <v>669</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
